--- a/users/informes_vendor/miquelrius/tendencias de rendimiento/Tendencias de rendimiento de ventas_ES (3).xlsx
+++ b/users/informes_vendor/miquelrius/tendencias de rendimiento/Tendencias de rendimiento de ventas_ES (3).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd74f11e194d3d0b/Escritorio/pruebaVisualizacion/informes_vendor/miquelrius/tendencias de rendimiento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_8328C32E8C1E2C4FD647F3DD6FBF844DD94681E6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{06DB2679-1C2D-425B-890E-F185A794A35E}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_47B363258C1E2C4FD647F3DD6FBF844D294B27DC" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AEF9519F-7BCE-425E-B2A0-40C14F5C197C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,6 +46,24 @@
     <t>Cambios en Conversión - Periodo anterior</t>
   </si>
   <si>
+    <t>02-feb-2020</t>
+  </si>
+  <si>
+    <t>01-feb-2020</t>
+  </si>
+  <si>
+    <t>31-ene-2020</t>
+  </si>
+  <si>
+    <t>30-ene-2020</t>
+  </si>
+  <si>
+    <t>29-ene-2020</t>
+  </si>
+  <si>
+    <t>28-ene-2020</t>
+  </si>
+  <si>
     <t>27-ene-2020</t>
   </si>
   <si>
@@ -212,24 +230,6 @@
   </si>
   <si>
     <t>04-dic-2019</t>
-  </si>
-  <si>
-    <t>03-dic-2019</t>
-  </si>
-  <si>
-    <t>02-dic-2019</t>
-  </si>
-  <si>
-    <t>01-dic-2019</t>
-  </si>
-  <si>
-    <t>30-nov-2019</t>
-  </si>
-  <si>
-    <t>29-nov-2019</t>
-  </si>
-  <si>
-    <t>28-nov-2019</t>
   </si>
 </sst>
 </file>
@@ -649,28 +649,28 @@
         <v>8</v>
       </c>
       <c r="B2" s="3">
-        <v>2106.8199999999997</v>
+        <v>1406.8500000000001</v>
       </c>
       <c r="C2" s="4">
-        <v>0.9391245121861419</v>
+        <v>0.74382716049382802</v>
       </c>
       <c r="D2" s="5">
-        <v>335</v>
+        <v>232</v>
       </c>
       <c r="E2" s="4">
-        <v>0.94767441860465107</v>
+        <v>0.744360902255639</v>
       </c>
       <c r="F2" s="3">
-        <v>6.2890149253731336</v>
+        <v>6.0640086206896555</v>
       </c>
       <c r="G2" s="6">
-        <v>-4.3898026984583449E-3</v>
+        <v>-3.0598126862446673E-4</v>
       </c>
       <c r="H2" s="4">
-        <v>8.6395873629916201E-2</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0.28773491592482681</v>
+        <v>0.40852205005959474</v>
+      </c>
+      <c r="I2" s="6">
+        <v>-0.10151443982698261</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -678,28 +678,28 @@
         <v>9</v>
       </c>
       <c r="B3" s="3">
-        <v>1086.48</v>
-      </c>
-      <c r="C3" s="4">
-        <v>3.8621454310265868E-3</v>
+        <v>806.75999999999965</v>
+      </c>
+      <c r="C3" s="6">
+        <v>-0.57722520634088859</v>
       </c>
       <c r="D3" s="5">
-        <v>172</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.13907284768211925</v>
+        <v>133</v>
+      </c>
+      <c r="E3" s="6">
+        <v>-0.5625</v>
       </c>
       <c r="F3" s="3">
-        <v>6.3167441860465114</v>
+        <v>6.0658646616541327</v>
       </c>
       <c r="G3" s="6">
-        <v>-0.11870241883671519</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0.39103139013452926</v>
-      </c>
-      <c r="I3" s="6">
-        <v>-8.7561374795417368E-2</v>
+        <v>-3.3657614493459609E-2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>-0.30431177446102819</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1.769725864123961E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -707,28 +707,28 @@
         <v>10</v>
       </c>
       <c r="B4" s="3">
-        <v>1082.3</v>
+        <v>1908.2500000000007</v>
       </c>
       <c r="C4" s="6">
-        <v>-0.25105010760575452</v>
+        <v>-9.7361500037841164E-2</v>
       </c>
       <c r="D4" s="5">
-        <v>151</v>
+        <v>304</v>
       </c>
       <c r="E4" s="6">
-        <v>-0.22564102564102562</v>
+        <v>-0.12138728323699421</v>
       </c>
       <c r="F4" s="3">
-        <v>7.1675496688741722</v>
-      </c>
-      <c r="G4" s="6">
-        <v>-3.281305286835845E-2</v>
+        <v>6.2771381578947389</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2.7345134825351725E-2</v>
       </c>
       <c r="H4" s="6">
-        <v>-0.22245467224546722</v>
-      </c>
-      <c r="I4" s="6">
-        <v>-9.625499939401283E-2</v>
+        <v>-0.39812850904553959</v>
+      </c>
+      <c r="I4" s="4">
+        <v>5.9620054489457397E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -736,28 +736,28 @@
         <v>11</v>
       </c>
       <c r="B5" s="3">
-        <v>1445.0899999999997</v>
+        <v>2114.0800000000004</v>
       </c>
       <c r="C5" s="6">
-        <v>-0.37376385650768362</v>
+        <v>-2.0765108318549386E-2</v>
       </c>
       <c r="D5" s="5">
-        <v>195</v>
-      </c>
-      <c r="E5" s="6">
-        <v>-0.43641618497109824</v>
+        <v>346</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.4662756598240456E-2</v>
       </c>
       <c r="F5" s="3">
-        <v>7.4107179487179469</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.111167721273546</v>
-      </c>
-      <c r="H5" s="6">
-        <v>-0.30512033597157162</v>
+        <v>6.1100578034682096</v>
+      </c>
+      <c r="G5" s="6">
+        <v>-3.4915901550940265E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.9720101781170563E-2</v>
       </c>
       <c r="I5" s="4">
-        <v>8.2982294399924328E-2</v>
+        <v>0.11425859122840333</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -765,28 +765,28 @@
         <v>12</v>
       </c>
       <c r="B6" s="3">
-        <v>2307.5800000000004</v>
-      </c>
-      <c r="C6" s="6">
-        <v>-6.2058481623892818E-2</v>
+        <v>2158.9099999999994</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.26277154521951673</v>
       </c>
       <c r="D6" s="5">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E6" s="4">
-        <v>3.5928143712574911E-2</v>
+        <v>0.30651340996168575</v>
       </c>
       <c r="F6" s="3">
-        <v>6.6693063583815038</v>
+        <v>6.3311143695014644</v>
       </c>
       <c r="G6" s="6">
-        <v>-9.4588245266994844E-2</v>
-      </c>
-      <c r="H6" s="6">
-        <v>-0.20861562060590566</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.19475800272521315</v>
+        <v>-3.3479843688287714E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.45582515280607522</v>
+      </c>
+      <c r="I6" s="6">
+        <v>-0.14138040712468192</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -794,28 +794,28 @@
         <v>13</v>
       </c>
       <c r="B7" s="3">
-        <v>2460.2599999999989</v>
+        <v>1709.6600000000003</v>
       </c>
       <c r="C7" s="6">
-        <v>-3.0580762608014234E-2</v>
+        <v>-0.18851159567499842</v>
       </c>
       <c r="D7" s="5">
-        <v>334</v>
+        <v>261</v>
       </c>
       <c r="E7" s="6">
-        <v>-8.9918256130790186E-2</v>
+        <v>-0.22089552238805965</v>
       </c>
       <c r="F7" s="3">
-        <v>7.3660479041916131</v>
+        <v>6.5504214559386984</v>
       </c>
       <c r="G7" s="4">
-        <v>6.5200180008559316E-2</v>
-      </c>
-      <c r="H7" s="6">
-        <v>-5.5991311693013197E-2</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1.0719977671110881E-2</v>
+        <v>4.1565576432473161E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>6.8051434223540985E-2</v>
+      </c>
+      <c r="I7" s="6">
+        <v>-6.7095591308191205E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -823,28 +823,28 @@
         <v>14</v>
       </c>
       <c r="B8" s="3">
-        <v>2537.87</v>
-      </c>
-      <c r="C8" s="6">
-        <v>-0.18547059295514734</v>
+        <v>2106.8200000000006</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.93912451218614379</v>
       </c>
       <c r="D8" s="5">
-        <v>367</v>
-      </c>
-      <c r="E8" s="6">
-        <v>-0.17897091722595082</v>
+        <v>335</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.94767441860465107</v>
       </c>
       <c r="F8" s="3">
-        <v>6.9151771117166208</v>
+        <v>6.2890149253731362</v>
       </c>
       <c r="G8" s="6">
-        <v>-7.9164987764329675E-3</v>
-      </c>
-      <c r="H8" s="6">
-        <v>-0.10507559395248378</v>
-      </c>
-      <c r="I8" s="6">
-        <v>-0.14024943391137079</v>
+        <v>-4.3898026984574567E-3</v>
+      </c>
+      <c r="H8" s="4">
+        <v>8.6395873629916201E-2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.28773491592482681</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -852,28 +852,28 @@
         <v>15</v>
       </c>
       <c r="B9" s="3">
-        <v>3115.7500000000005</v>
+        <v>1086.4799999999998</v>
       </c>
       <c r="C9" s="4">
-        <v>0.76739028084247107</v>
+        <v>3.8621454310265868E-3</v>
       </c>
       <c r="D9" s="5">
-        <v>447</v>
+        <v>172</v>
       </c>
       <c r="E9" s="4">
-        <v>0.78799999999999992</v>
+        <v>0.13907284768211925</v>
       </c>
       <c r="F9" s="3">
-        <v>6.970357941834453</v>
+        <v>6.3167441860465106</v>
       </c>
       <c r="G9" s="6">
-        <v>-1.1526688566850574E-2</v>
+        <v>-0.11870241883671506</v>
       </c>
       <c r="H9" s="4">
-        <v>0.50789773652499592</v>
-      </c>
-      <c r="I9" s="4">
-        <v>2.8647270262174729E-2</v>
+        <v>0.39103139013452926</v>
+      </c>
+      <c r="I9" s="6">
+        <v>-8.7561374795417368E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -881,28 +881,28 @@
         <v>16</v>
       </c>
       <c r="B10" s="3">
-        <v>1762.9099999999999</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.469642782710183</v>
+        <v>1082.3000000000002</v>
+      </c>
+      <c r="C10" s="6">
+        <v>-0.25105010760575452</v>
       </c>
       <c r="D10" s="5">
-        <v>250</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.4285714285714286</v>
+        <v>151</v>
+      </c>
+      <c r="E10" s="6">
+        <v>-0.22564102564102562</v>
       </c>
       <c r="F10" s="3">
-        <v>7.051639999999999</v>
-      </c>
-      <c r="G10" s="4">
-        <v>2.8749947897128036E-2</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0.2680156927524262</v>
-      </c>
-      <c r="I10" s="4">
-        <v>7.5053003991603529E-2</v>
+        <v>7.1675496688741731</v>
+      </c>
+      <c r="G10" s="6">
+        <v>-3.2813052868358561E-2</v>
+      </c>
+      <c r="H10" s="6">
+        <v>-0.22245467224546722</v>
+      </c>
+      <c r="I10" s="6">
+        <v>-9.625499939401283E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -910,28 +910,28 @@
         <v>17</v>
       </c>
       <c r="B11" s="3">
-        <v>1199.55</v>
+        <v>1445.0899999999997</v>
       </c>
       <c r="C11" s="6">
-        <v>-0.50262463926758905</v>
+        <v>-0.3737638565076834</v>
       </c>
       <c r="D11" s="5">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E11" s="6">
-        <v>-0.49275362318840576</v>
+        <v>-0.43641618497109824</v>
       </c>
       <c r="F11" s="3">
-        <v>6.8545714285714281</v>
-      </c>
-      <c r="G11" s="6">
-        <v>-1.9460003127532821E-2</v>
+        <v>7.4107179487179469</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.11116772127354647</v>
       </c>
       <c r="H11" s="6">
-        <v>-0.2162162162162162</v>
-      </c>
-      <c r="I11" s="6">
-        <v>-0.10018148820326678</v>
+        <v>-0.30512033597157162</v>
+      </c>
+      <c r="I11" s="4">
+        <v>8.2982294399924328E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -939,28 +939,28 @@
         <v>18</v>
       </c>
       <c r="B12" s="3">
-        <v>2411.7600000000011</v>
+        <v>2307.58</v>
       </c>
       <c r="C12" s="6">
-        <v>-0.21828082458187426</v>
+        <v>-6.2058481623892818E-2</v>
       </c>
       <c r="D12" s="5">
-        <v>345</v>
-      </c>
-      <c r="E12" s="6">
-        <v>-0.16262135922330104</v>
+        <v>346</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3.5928143712574911E-2</v>
       </c>
       <c r="F12" s="3">
-        <v>6.9906086956521776</v>
+        <v>6.6693063583815029</v>
       </c>
       <c r="G12" s="6">
-        <v>-6.6468694862991784E-2</v>
+        <v>-9.4588245266994844E-2</v>
       </c>
       <c r="H12" s="6">
-        <v>-0.31191536748329618</v>
-      </c>
-      <c r="I12" s="6">
-        <v>-6.5026557220498882E-2</v>
+        <v>-0.20861562060590566</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.19475800272521315</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -968,28 +968,28 @@
         <v>19</v>
       </c>
       <c r="B13" s="3">
-        <v>3085.2</v>
+        <v>2460.2599999999989</v>
       </c>
       <c r="C13" s="6">
-        <v>-0.32179395303645175</v>
+        <v>-3.0580762608014234E-2</v>
       </c>
       <c r="D13" s="5">
-        <v>412</v>
+        <v>334</v>
       </c>
       <c r="E13" s="6">
-        <v>-0.37003058103975539</v>
+        <v>-8.9918256130790186E-2</v>
       </c>
       <c r="F13" s="3">
-        <v>7.4883495145631063</v>
+        <v>7.3660479041916131</v>
       </c>
       <c r="G13" s="4">
-        <v>7.6569792995535346E-2</v>
+        <v>6.5200180008559316E-2</v>
       </c>
       <c r="H13" s="6">
-        <v>-0.20664369643961478</v>
+        <v>-5.5991311693013197E-2</v>
       </c>
       <c r="I13" s="4">
-        <v>0.17555198687141016</v>
+        <v>1.0719977671110881E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -997,28 +997,28 @@
         <v>20</v>
       </c>
       <c r="B14" s="3">
-        <v>4549.0600000000013</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.26573734001112959</v>
+        <v>2537.8700000000003</v>
+      </c>
+      <c r="C14" s="6">
+        <v>-0.1854705929551472</v>
       </c>
       <c r="D14" s="5">
-        <v>654</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.36820083682008375</v>
+        <v>367</v>
+      </c>
+      <c r="E14" s="6">
+        <v>-0.17897091722595082</v>
       </c>
       <c r="F14" s="3">
-        <v>6.9557492354740083</v>
+        <v>6.9151771117166225</v>
       </c>
       <c r="G14" s="6">
-        <v>-7.4889222438348724E-2</v>
+        <v>-7.9164987764327455E-3</v>
       </c>
       <c r="H14" s="6">
-        <v>-8.4445522931327344E-2</v>
-      </c>
-      <c r="I14" s="4">
-        <v>5.6642140020501497E-2</v>
+        <v>-0.10507559395248378</v>
+      </c>
+      <c r="I14" s="6">
+        <v>-0.14024943391137079</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1026,28 +1026,28 @@
         <v>21</v>
       </c>
       <c r="B15" s="3">
-        <v>3594.0000000000014</v>
-      </c>
-      <c r="C15" s="6">
-        <v>-8.9727398567226446E-3</v>
+        <v>3115.7500000000005</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.76739028084247107</v>
       </c>
       <c r="D15" s="5">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="E15" s="4">
-        <v>5.7522123893805288E-2</v>
+        <v>0.78799999999999992</v>
       </c>
       <c r="F15" s="3">
-        <v>7.5188284518828477</v>
+        <v>6.970357941834453</v>
       </c>
       <c r="G15" s="6">
-        <v>-6.2877988316398792E-2</v>
-      </c>
-      <c r="H15" s="6">
-        <v>-5.6588520614386795E-4</v>
-      </c>
-      <c r="I15" s="6">
-        <v>-1.3497977999517241E-2</v>
+        <v>-1.1526688566850574E-2</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.50789773652499592</v>
+      </c>
+      <c r="I15" s="4">
+        <v>2.8647270262174729E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1055,28 +1055,28 @@
         <v>22</v>
       </c>
       <c r="B16" s="3">
-        <v>3626.5400000000004</v>
+        <v>1762.91</v>
       </c>
       <c r="C16" s="4">
-        <v>0.64933440665093101</v>
+        <v>0.46964278271018278</v>
       </c>
       <c r="D16" s="5">
-        <v>452</v>
+        <v>250</v>
       </c>
       <c r="E16" s="4">
-        <v>0.52702702702702697</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="F16" s="3">
-        <v>8.0233185840707968</v>
+        <v>7.0516399999999999</v>
       </c>
       <c r="G16" s="4">
-        <v>8.0095098160786637E-2</v>
+        <v>2.8749947897127814E-2</v>
       </c>
       <c r="H16" s="4">
-        <v>0.46079357581483227</v>
+        <v>0.2680156927524262</v>
       </c>
       <c r="I16" s="4">
-        <v>1.1604125036882129E-2</v>
+        <v>7.5053003991603529E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1084,28 +1084,28 @@
         <v>23</v>
       </c>
       <c r="B17" s="3">
-        <v>2198.7900000000004</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.1791023166023169</v>
+        <v>1199.5500000000002</v>
+      </c>
+      <c r="C17" s="6">
+        <v>-0.50262463926758882</v>
       </c>
       <c r="D17" s="5">
-        <v>296</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.13409961685823757</v>
+        <v>175</v>
+      </c>
+      <c r="E17" s="6">
+        <v>-0.49275362318840576</v>
       </c>
       <c r="F17" s="3">
-        <v>7.4283445945945958</v>
-      </c>
-      <c r="G17" s="4">
-        <v>3.9681434571637419E-2</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0.17009810695039373</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0.12503921011454899</v>
+        <v>6.8545714285714299</v>
+      </c>
+      <c r="G17" s="6">
+        <v>-1.9460003127532155E-2</v>
+      </c>
+      <c r="H17" s="6">
+        <v>-0.2162162162162162</v>
+      </c>
+      <c r="I17" s="6">
+        <v>-0.10018148820326678</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1113,28 +1113,28 @@
         <v>24</v>
       </c>
       <c r="B18" s="3">
-        <v>1864.8</v>
+        <v>2411.7600000000002</v>
       </c>
       <c r="C18" s="6">
-        <v>-0.38564933781379696</v>
+        <v>-0.21828082458187459</v>
       </c>
       <c r="D18" s="5">
-        <v>261</v>
+        <v>345</v>
       </c>
       <c r="E18" s="6">
-        <v>-0.35555555555555551</v>
+        <v>-0.16262135922330104</v>
       </c>
       <c r="F18" s="3">
-        <v>7.1448275862068966</v>
+        <v>6.9906086956521749</v>
       </c>
       <c r="G18" s="6">
-        <v>-4.669724833175392E-2</v>
+        <v>-6.6468694862992228E-2</v>
       </c>
       <c r="H18" s="6">
-        <v>-0.2943642745709828</v>
+        <v>-0.31191536748329618</v>
       </c>
       <c r="I18" s="6">
-        <v>-2.4748863739356142E-2</v>
+        <v>-6.5026557220498882E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1142,28 +1142,28 @@
         <v>25</v>
       </c>
       <c r="B19" s="3">
-        <v>3035.3999999999987</v>
+        <v>3085.1999999999994</v>
       </c>
       <c r="C19" s="6">
-        <v>-0.29252176345138647</v>
+        <v>-0.32179395303645153</v>
       </c>
       <c r="D19" s="5">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="E19" s="6">
-        <v>-0.2767857142857143</v>
+        <v>-0.37003058103975539</v>
       </c>
       <c r="F19" s="3">
-        <v>7.4948148148148119</v>
-      </c>
-      <c r="G19" s="6">
-        <v>-2.1758487735250465E-2</v>
+        <v>7.4883495145631054</v>
+      </c>
+      <c r="G19" s="4">
+        <v>7.6569792995535568E-2</v>
       </c>
       <c r="H19" s="6">
-        <v>-0.41236463645218591</v>
+        <v>-0.20664369643961478</v>
       </c>
       <c r="I19" s="4">
-        <v>0.10094892491351824</v>
+        <v>0.17555198687141016</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1171,28 +1171,28 @@
         <v>26</v>
       </c>
       <c r="B20" s="3">
-        <v>4290.45</v>
-      </c>
-      <c r="C20" s="6">
-        <v>-0.2092342172147692</v>
+        <v>4549.0599999999995</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.26573734001112959</v>
       </c>
       <c r="D20" s="5">
-        <v>560</v>
-      </c>
-      <c r="E20" s="6">
-        <v>-0.16417910447761197</v>
+        <v>654</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.36820083682008375</v>
       </c>
       <c r="F20" s="3">
-        <v>7.661517857142857</v>
+        <v>6.9557492354740056</v>
       </c>
       <c r="G20" s="6">
-        <v>-5.3905224167670296E-2</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0.1330909563072129</v>
-      </c>
-      <c r="I20" s="6">
-        <v>-0.16122071414467098</v>
+        <v>-7.4889222438348724E-2</v>
+      </c>
+      <c r="H20" s="6">
+        <v>-8.4445522931327344E-2</v>
+      </c>
+      <c r="I20" s="4">
+        <v>5.6642140020501497E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1200,28 +1200,28 @@
         <v>27</v>
       </c>
       <c r="B21" s="3">
-        <v>5425.6900000000014</v>
-      </c>
-      <c r="C21" s="4">
-        <v>5.6078932104220769E-2</v>
+        <v>3594.0000000000005</v>
+      </c>
+      <c r="C21" s="6">
+        <v>-8.9727398567231997E-3</v>
       </c>
       <c r="D21" s="5">
-        <v>670</v>
-      </c>
-      <c r="E21" s="6">
-        <v>-2.6162790697674465E-2</v>
+        <v>478</v>
+      </c>
+      <c r="E21" s="4">
+        <v>5.7522123893805288E-2</v>
       </c>
       <c r="F21" s="3">
-        <v>8.098044776119405</v>
-      </c>
-      <c r="G21" s="4">
-        <v>8.445120192194612E-2</v>
-      </c>
-      <c r="H21" s="4">
-        <v>5.4133588831097645E-2</v>
-      </c>
-      <c r="I21" s="4">
-        <v>9.1123673749792911E-2</v>
+        <v>7.5188284518828459</v>
+      </c>
+      <c r="G21" s="6">
+        <v>-6.2877988316399236E-2</v>
+      </c>
+      <c r="H21" s="6">
+        <v>-5.6588520614386795E-4</v>
+      </c>
+      <c r="I21" s="6">
+        <v>-1.3497977999517241E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1229,28 +1229,28 @@
         <v>28</v>
       </c>
       <c r="B22" s="3">
-        <v>5137.579999999999</v>
+        <v>3626.5400000000013</v>
       </c>
       <c r="C22" s="4">
-        <v>14.720387993023467</v>
+        <v>0.64933440665093167</v>
       </c>
       <c r="D22" s="5">
-        <v>688</v>
+        <v>452</v>
       </c>
       <c r="E22" s="4">
-        <v>16.2</v>
+        <v>0.52702702702702697</v>
       </c>
       <c r="F22" s="3">
-        <v>7.4674127906976731</v>
-      </c>
-      <c r="G22" s="6">
-        <v>-8.6023953893984414E-2</v>
+        <v>8.0233185840707986</v>
+      </c>
+      <c r="G22" s="4">
+        <v>8.0095098160787082E-2</v>
       </c>
       <c r="H22" s="4">
-        <v>1.1959723474601742</v>
-      </c>
-      <c r="I22" s="6">
-        <v>-0.22230705237822679</v>
+        <v>0.46079357581483227</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1.1604125036882129E-2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1258,28 +1258,28 @@
         <v>29</v>
       </c>
       <c r="B23" s="3">
-        <v>326.81</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-0.62254715128835914</v>
+        <v>2198.7899999999991</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.17910231660231582</v>
       </c>
       <c r="D23" s="5">
-        <v>40</v>
-      </c>
-      <c r="E23" s="6">
-        <v>-0.64912280701754388</v>
+        <v>296</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.13409961685823757</v>
       </c>
       <c r="F23" s="3">
-        <v>8.1702499999999993</v>
+        <v>7.4283445945945914</v>
       </c>
       <c r="G23" s="4">
-        <v>7.574061882817662E-2</v>
+        <v>3.9681434571636531E-2</v>
       </c>
       <c r="H23" s="4">
-        <v>0.32497013142174436</v>
+        <v>0.17009810695039373</v>
       </c>
       <c r="I23" s="4">
-        <v>0.23647909751932938</v>
+        <v>0.12503921011454899</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1287,28 +1287,28 @@
         <v>30</v>
       </c>
       <c r="B24" s="3">
-        <v>865.82999999999981</v>
+        <v>1864.8</v>
       </c>
       <c r="C24" s="6">
-        <v>-0.75003103572717433</v>
+        <v>-0.38564933781379712</v>
       </c>
       <c r="D24" s="5">
-        <v>114</v>
+        <v>261</v>
       </c>
       <c r="E24" s="6">
-        <v>-0.75163398692810457</v>
+        <v>-0.35555555555555551</v>
       </c>
       <c r="F24" s="3">
-        <v>7.594999999999998</v>
-      </c>
-      <c r="G24" s="4">
-        <v>6.4539877300613391E-3</v>
+        <v>7.1448275862068966</v>
+      </c>
+      <c r="G24" s="6">
+        <v>-4.6697248331754156E-2</v>
       </c>
       <c r="H24" s="6">
-        <v>-0.33474632401642601</v>
+        <v>-0.2943642745709828</v>
       </c>
       <c r="I24" s="6">
-        <v>-0.12236346411194476</v>
+        <v>-2.4748863739356142E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1316,28 +1316,28 @@
         <v>31</v>
       </c>
       <c r="B25" s="3">
-        <v>3463.7499999999995</v>
+        <v>3035.3999999999996</v>
       </c>
       <c r="C25" s="6">
-        <v>-0.35718633662557897</v>
+        <v>-0.29252176345138658</v>
       </c>
       <c r="D25" s="5">
-        <v>459</v>
+        <v>405</v>
       </c>
       <c r="E25" s="6">
-        <v>-0.34051724137931039</v>
+        <v>-0.2767857142857143</v>
       </c>
       <c r="F25" s="3">
-        <v>7.5462962962962949</v>
+        <v>7.4948148148148137</v>
       </c>
       <c r="G25" s="6">
-        <v>-2.5276013706760248E-2</v>
+        <v>-2.1758487735250576E-2</v>
       </c>
       <c r="H25" s="6">
-        <v>-0.41046466224131195</v>
-      </c>
-      <c r="I25" s="6">
-        <v>-5.1748483978746318E-2</v>
+        <v>-0.41236463645218591</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.10094892491351824</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1345,28 +1345,28 @@
         <v>32</v>
       </c>
       <c r="B26" s="3">
-        <v>5388.4200000000028</v>
+        <v>4290.4500000000007</v>
       </c>
       <c r="C26" s="6">
-        <v>-0.29122958399156029</v>
+        <v>-0.20923421721476931</v>
       </c>
       <c r="D26" s="5">
-        <v>696</v>
+        <v>560</v>
       </c>
       <c r="E26" s="6">
-        <v>-0.32427184466019421</v>
+        <v>-0.16417910447761197</v>
       </c>
       <c r="F26" s="3">
-        <v>7.7419827586206935</v>
-      </c>
-      <c r="G26" s="4">
-        <v>4.8898747828581834E-2</v>
-      </c>
-      <c r="H26" s="6">
-        <v>-0.19419797369580258</v>
+        <v>7.6615178571428588</v>
+      </c>
+      <c r="G26" s="6">
+        <v>-5.3905224167670518E-2</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.1330909563072129</v>
       </c>
       <c r="I26" s="6">
-        <v>-7.0460630574959326E-2</v>
+        <v>-0.16122071414467098</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1374,202 +1374,202 @@
         <v>33</v>
       </c>
       <c r="B27" s="3">
-        <v>7602.49</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0</v>
+        <v>5425.6900000000005</v>
+      </c>
+      <c r="C27" s="4">
+        <v>5.6078932104220325E-2</v>
       </c>
       <c r="D27" s="5">
-        <v>1030</v>
-      </c>
-      <c r="E27" s="7">
-        <v>0</v>
+        <v>670</v>
+      </c>
+      <c r="E27" s="6">
+        <v>-2.6162790697674465E-2</v>
       </c>
       <c r="F27" s="3">
-        <v>7.3810582524271844</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>34</v>
+        <v>8.0980447761194032</v>
+      </c>
+      <c r="G27" s="4">
+        <v>8.4451201921945648E-2</v>
       </c>
       <c r="H27" s="4">
-        <v>1.1190825443392454</v>
-      </c>
-      <c r="I27" s="6">
-        <v>-3.2285612401149466E-2</v>
+        <v>5.4133588831097645E-2</v>
+      </c>
+      <c r="I27" s="4">
+        <v>9.1123673749792911E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="3">
-        <v>0</v>
-      </c>
-      <c r="C28" s="6">
-        <v>-1</v>
+        <v>5137.579999999999</v>
+      </c>
+      <c r="C28" s="4">
+        <v>14.720387993023467</v>
       </c>
       <c r="D28" s="5">
-        <v>0</v>
-      </c>
-      <c r="E28" s="6">
-        <v>-1</v>
+        <v>688</v>
+      </c>
+      <c r="E28" s="4">
+        <v>16.2</v>
       </c>
       <c r="F28" s="3">
-        <v>0</v>
+        <v>7.4674127906976731</v>
       </c>
       <c r="G28" s="6">
-        <v>-1</v>
+        <v>-8.6023953893984414E-2</v>
       </c>
       <c r="H28" s="4">
-        <v>0.29494042479709903</v>
+        <v>1.1959723474601742</v>
       </c>
       <c r="I28" s="6">
-        <v>-0.1557183329011409</v>
+        <v>-0.22230705237822679</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="3">
-        <v>2866.26</v>
+        <v>326.81000000000006</v>
       </c>
       <c r="C29" s="6">
-        <v>-0.3211180403739432</v>
+        <v>-0.62254715128835914</v>
       </c>
       <c r="D29" s="5">
-        <v>360</v>
+        <v>40</v>
       </c>
       <c r="E29" s="6">
-        <v>-0.32330827067669177</v>
+        <v>-0.64912280701754388</v>
       </c>
       <c r="F29" s="3">
-        <v>7.9618333333333338</v>
+        <v>8.1702500000000011</v>
       </c>
       <c r="G29" s="4">
-        <v>3.2366736696172183E-3</v>
-      </c>
-      <c r="H29" s="6">
-        <v>-0.44032086595148356</v>
+        <v>7.5740618828176398E-2</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.32497013142174436</v>
       </c>
       <c r="I29" s="4">
-        <v>0.14766132646745533</v>
+        <v>0.23647909751932938</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="3">
-        <v>4222.03</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0.43232304727785897</v>
+        <v>865.83000000000015</v>
+      </c>
+      <c r="C30" s="6">
+        <v>-0.75003103572717422</v>
       </c>
       <c r="D30" s="5">
-        <v>532</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0.43010752688172049</v>
+        <v>114</v>
+      </c>
+      <c r="E30" s="6">
+        <v>-0.75163398692810457</v>
       </c>
       <c r="F30" s="3">
-        <v>7.936146616541353</v>
+        <v>7.5950000000000015</v>
       </c>
       <c r="G30" s="4">
-        <v>1.5491984724878005E-3</v>
-      </c>
-      <c r="H30" s="4">
-        <v>0.19287525939589578</v>
-      </c>
-      <c r="I30" s="4">
-        <v>9.451802407557984E-2</v>
+        <v>6.4539877300615611E-3</v>
+      </c>
+      <c r="H30" s="6">
+        <v>-0.33474632401642601</v>
+      </c>
+      <c r="I30" s="6">
+        <v>-0.12236346411194476</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="3">
-        <v>2947.6800000000003</v>
+        <v>3463.75</v>
       </c>
       <c r="C31" s="6">
-        <v>-0.12271689667590235</v>
+        <v>-0.35718633662557819</v>
       </c>
       <c r="D31" s="5">
-        <v>372</v>
+        <v>459</v>
       </c>
       <c r="E31" s="6">
-        <v>-0.10576923076923073</v>
+        <v>-0.34051724137931039</v>
       </c>
       <c r="F31" s="3">
-        <v>7.9238709677419363</v>
+        <v>7.5462962962962967</v>
       </c>
       <c r="G31" s="6">
-        <v>-1.8952228540794036E-2</v>
-      </c>
-      <c r="H31" s="4">
-        <v>7.9258429762349092E-2</v>
-      </c>
-      <c r="I31" s="4">
-        <v>0.1080816232418722</v>
+        <v>-2.5276013706759026E-2</v>
+      </c>
+      <c r="H31" s="6">
+        <v>-0.41046466224131195</v>
+      </c>
+      <c r="I31" s="6">
+        <v>-5.1748483978746318E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="3">
-        <v>3360.0099999999989</v>
+        <v>5388.4199999999973</v>
       </c>
       <c r="C32" s="6">
-        <v>-0.24225626546209811</v>
+        <v>-0.29122958399156118</v>
       </c>
       <c r="D32" s="5">
-        <v>416</v>
+        <v>696</v>
       </c>
       <c r="E32" s="6">
-        <v>-0.22097378277153557</v>
+        <v>-0.32427184466019421</v>
       </c>
       <c r="F32" s="3">
-        <v>8.0769471153846126</v>
-      </c>
-      <c r="G32" s="6">
-        <v>-2.7319340761443267E-2</v>
+        <v>7.7419827586206855</v>
+      </c>
+      <c r="G32" s="4">
+        <v>4.8898747828580502E-2</v>
       </c>
       <c r="H32" s="6">
-        <v>-0.13913881748071977</v>
+        <v>-0.19419797369580258</v>
       </c>
       <c r="I32" s="6">
-        <v>-2.3890428145747267E-2</v>
+        <v>-7.0460630574959326E-2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="3">
+        <v>7602.49</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1030</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>7.3810582524271844</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="3">
-        <v>4434.2299999999977</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0.62362965295526229</v>
-      </c>
-      <c r="D33" s="5">
-        <v>534</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0.67398119122257061</v>
-      </c>
-      <c r="F33" s="3">
-        <v>8.3038014981273367</v>
-      </c>
-      <c r="G33" s="6">
-        <v>-3.0078915182156107E-2</v>
-      </c>
       <c r="H33" s="4">
-        <v>4.4061731156340933E-2</v>
+        <v>1.1190825443392454</v>
       </c>
       <c r="I33" s="6">
-        <v>-5.3825987304598089E-2</v>
+        <v>-3.2285612401149466E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1577,28 +1577,28 @@
         <v>41</v>
       </c>
       <c r="B34" s="3">
-        <v>2731.0599999999995</v>
-      </c>
-      <c r="C34" s="7">
         <v>0</v>
       </c>
+      <c r="C34" s="6">
+        <v>-1</v>
+      </c>
       <c r="D34" s="5">
-        <v>319</v>
-      </c>
-      <c r="E34" s="7">
         <v>0</v>
       </c>
+      <c r="E34" s="6">
+        <v>-1</v>
+      </c>
       <c r="F34" s="3">
-        <v>8.5613166144200612</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>34</v>
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>-1</v>
       </c>
       <c r="H34" s="4">
-        <v>0.97264504742995816</v>
+        <v>0.29494042479709903</v>
       </c>
       <c r="I34" s="6">
-        <v>-0.14403019825395724</v>
+        <v>-0.1557183329011409</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -1606,28 +1606,28 @@
         <v>42</v>
       </c>
       <c r="B35" s="3">
-        <v>0</v>
+        <v>2866.2599999999998</v>
       </c>
       <c r="C35" s="6">
-        <v>-1</v>
+        <v>-0.32111804037394331</v>
       </c>
       <c r="D35" s="5">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="E35" s="6">
-        <v>-1</v>
+        <v>-0.32330827067669177</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H35" s="4">
-        <v>0.28522823929685281</v>
-      </c>
-      <c r="I35" s="6">
-        <v>-5.5474886761866848E-2</v>
+        <v>7.9618333333333329</v>
+      </c>
+      <c r="G35" s="4">
+        <v>3.2366736696169962E-3</v>
+      </c>
+      <c r="H35" s="6">
+        <v>-0.44032086595148356</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0.14766132646745533</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -1635,28 +1635,28 @@
         <v>43</v>
       </c>
       <c r="B36" s="3">
-        <v>1646.8200000000002</v>
-      </c>
-      <c r="C36" s="6">
-        <v>-0.60369730426956325</v>
+        <v>4222.03</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.43232304727785942</v>
       </c>
       <c r="D36" s="5">
-        <v>210</v>
-      </c>
-      <c r="E36" s="6">
-        <v>-0.5992366412213741</v>
+        <v>532</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0.43010752688172049</v>
       </c>
       <c r="F36" s="3">
-        <v>7.8420000000000005</v>
-      </c>
-      <c r="G36" s="6">
-        <v>-1.1130416367862717E-2</v>
-      </c>
-      <c r="H36" s="6">
-        <v>-0.49578270192995</v>
-      </c>
-      <c r="I36" s="6">
-        <v>-2.2946930402441668E-2</v>
+        <v>7.936146616541353</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1.5491984724882446E-3</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0.19287525939589578</v>
+      </c>
+      <c r="I36" s="4">
+        <v>9.451802407557984E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -1664,28 +1664,28 @@
         <v>44</v>
       </c>
       <c r="B37" s="3">
-        <v>4155.4599999999991</v>
-      </c>
-      <c r="C37" s="4">
-        <v>0.65721236291126561</v>
+        <v>2947.6799999999989</v>
+      </c>
+      <c r="C37" s="6">
+        <v>-0.12271689667590346</v>
       </c>
       <c r="D37" s="5">
-        <v>524</v>
-      </c>
-      <c r="E37" s="4">
-        <v>0.56886227544910173</v>
+        <v>372</v>
+      </c>
+      <c r="E37" s="6">
+        <v>-0.10576923076923073</v>
       </c>
       <c r="F37" s="3">
-        <v>7.9302671755725171</v>
-      </c>
-      <c r="G37" s="4">
-        <v>5.631475040527234E-2</v>
+        <v>7.9238709677419328</v>
+      </c>
+      <c r="G37" s="6">
+        <v>-1.8952228540795368E-2</v>
       </c>
       <c r="H37" s="4">
-        <v>7.1537990196078427E-2</v>
+        <v>7.9258429762349092E-2</v>
       </c>
       <c r="I37" s="4">
-        <v>2.6310283240435606E-2</v>
+        <v>0.1080816232418722</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -1693,28 +1693,28 @@
         <v>45</v>
       </c>
       <c r="B38" s="3">
-        <v>2507.5000000000005</v>
-      </c>
-      <c r="C38" s="4">
-        <v>0.12763527126205232</v>
+        <v>3360.01</v>
+      </c>
+      <c r="C38" s="6">
+        <v>-0.24225626546209789</v>
       </c>
       <c r="D38" s="5">
-        <v>334</v>
-      </c>
-      <c r="E38" s="4">
-        <v>0.10963455149501655</v>
+        <v>416</v>
+      </c>
+      <c r="E38" s="6">
+        <v>-0.22097378277153557</v>
       </c>
       <c r="F38" s="3">
-        <v>7.5074850299401215</v>
-      </c>
-      <c r="G38" s="4">
-        <v>1.6222205538556134E-2</v>
-      </c>
-      <c r="H38" s="4">
-        <v>8.4745762711864389E-2</v>
-      </c>
-      <c r="I38" s="4">
-        <v>9.9728697749196224E-2</v>
+        <v>8.0769471153846162</v>
+      </c>
+      <c r="G38" s="6">
+        <v>-2.7319340761442823E-2</v>
+      </c>
+      <c r="H38" s="6">
+        <v>-0.13913881748071977</v>
+      </c>
+      <c r="I38" s="6">
+        <v>-2.3890428145747267E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -1722,28 +1722,28 @@
         <v>46</v>
       </c>
       <c r="B39" s="3">
-        <v>2223.6799999999998</v>
-      </c>
-      <c r="C39" s="6">
-        <v>-0.25083467813935023</v>
+        <v>4434.2299999999987</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.62362965295526229</v>
       </c>
       <c r="D39" s="5">
-        <v>301</v>
-      </c>
-      <c r="E39" s="6">
-        <v>-0.16388888888888886</v>
+        <v>534</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0.67398119122257061</v>
       </c>
       <c r="F39" s="3">
-        <v>7.3876411960132886</v>
+        <v>8.3038014981273385</v>
       </c>
       <c r="G39" s="6">
-        <v>-0.1039883193693225</v>
-      </c>
-      <c r="H39" s="6">
-        <v>-7.1439592655454409E-2</v>
+        <v>-3.0078915182156107E-2</v>
+      </c>
+      <c r="H39" s="4">
+        <v>4.4061731156340933E-2</v>
       </c>
       <c r="I39" s="6">
-        <v>-0.14559425465101294</v>
+        <v>-5.3825987304598089E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -1751,28 +1751,28 @@
         <v>47</v>
       </c>
       <c r="B40" s="3">
-        <v>2968.2100000000009</v>
-      </c>
-      <c r="C40" s="6">
-        <v>-0.32577457750317962</v>
+        <v>2731.06</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0</v>
       </c>
       <c r="D40" s="5">
-        <v>360</v>
-      </c>
-      <c r="E40" s="6">
-        <v>-0.32835820895522383</v>
+        <v>319</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0</v>
       </c>
       <c r="F40" s="3">
-        <v>8.2450277777777803</v>
-      </c>
-      <c r="G40" s="4">
-        <v>3.8467401619326491E-3</v>
-      </c>
-      <c r="H40" s="6">
-        <v>-0.22780888835934709</v>
-      </c>
-      <c r="I40" s="4">
-        <v>0.11816376844004207</v>
+        <v>8.561316614420063</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0.97264504742995816</v>
+      </c>
+      <c r="I40" s="6">
+        <v>-0.14403019825395724</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -1780,28 +1780,28 @@
         <v>48</v>
       </c>
       <c r="B41" s="3">
-        <v>4402.3999999999987</v>
+        <v>0</v>
       </c>
       <c r="C41" s="6">
-        <v>-5.8487455682773026E-3</v>
+        <v>-1</v>
       </c>
       <c r="D41" s="5">
-        <v>536</v>
+        <v>0</v>
       </c>
       <c r="E41" s="6">
-        <v>-2.722323049001818E-2</v>
+        <v>-1</v>
       </c>
       <c r="F41" s="3">
-        <v>8.2134328358208926</v>
-      </c>
-      <c r="G41" s="4">
-        <v>2.1972651477386584E-2</v>
-      </c>
-      <c r="H41" s="6">
-        <v>-0.15042008300435272</v>
-      </c>
-      <c r="I41" s="4">
-        <v>4.9865907060261838E-2</v>
+        <v>0</v>
+      </c>
+      <c r="G41" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0.28522823929685281</v>
+      </c>
+      <c r="I41" s="6">
+        <v>-5.5474886761866848E-2</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -1809,28 +1809,28 @@
         <v>49</v>
       </c>
       <c r="B42" s="3">
-        <v>4428.3000000000011</v>
+        <v>1646.8200000000004</v>
       </c>
       <c r="C42" s="6">
-        <v>-3.8089342152422767E-2</v>
+        <v>-0.60369730426956325</v>
       </c>
       <c r="D42" s="5">
-        <v>551</v>
+        <v>210</v>
       </c>
       <c r="E42" s="6">
-        <v>-7.8595317725752456E-2</v>
+        <v>-0.5992366412213741</v>
       </c>
       <c r="F42" s="3">
-        <v>8.03684210526316</v>
-      </c>
-      <c r="G42" s="4">
-        <v>4.396111323566454E-2</v>
+        <v>7.8420000000000023</v>
+      </c>
+      <c r="G42" s="6">
+        <v>-1.1130416367862495E-2</v>
       </c>
       <c r="H42" s="6">
-        <v>-5.4550674705713502E-2</v>
+        <v>-0.49578270192995</v>
       </c>
       <c r="I42" s="6">
-        <v>-9.9718466352564969E-2</v>
+        <v>-2.2946930402441668E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -1838,28 +1838,28 @@
         <v>50</v>
       </c>
       <c r="B43" s="3">
-        <v>4603.6500000000024</v>
+        <v>4155.4599999999991</v>
       </c>
       <c r="C43" s="4">
-        <v>1.6437781506668303E-2</v>
+        <v>0.65721236291126672</v>
       </c>
       <c r="D43" s="5">
-        <v>598</v>
-      </c>
-      <c r="E43" s="6">
-        <v>-1.6694490818029983E-3</v>
+        <v>524</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0.56886227544910173</v>
       </c>
       <c r="F43" s="3">
-        <v>7.6984113712374622</v>
+        <v>7.9302671755725171</v>
       </c>
       <c r="G43" s="4">
-        <v>1.8137510238285026E-2</v>
-      </c>
-      <c r="H43" s="6">
-        <v>-0.13515974176460854</v>
+        <v>5.6314750405273006E-2</v>
+      </c>
+      <c r="H43" s="4">
+        <v>7.1537990196078427E-2</v>
       </c>
       <c r="I43" s="4">
-        <v>5.0846767378737168E-2</v>
+        <v>2.6310283240435606E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -1867,28 +1867,28 @@
         <v>51</v>
       </c>
       <c r="B44" s="3">
-        <v>4529.2</v>
+        <v>2507.4999999999982</v>
       </c>
       <c r="C44" s="4">
-        <v>0.63541497409232917</v>
+        <v>0.12763527126205143</v>
       </c>
       <c r="D44" s="5">
-        <v>599</v>
+        <v>334</v>
       </c>
       <c r="E44" s="4">
-        <v>0.64560439560439553</v>
+        <v>0.10963455149501655</v>
       </c>
       <c r="F44" s="3">
-        <v>7.5612687813021697</v>
-      </c>
-      <c r="G44" s="6">
-        <v>-6.1919022210220609E-3</v>
+        <v>7.5074850299401144</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1.6222205538555245E-2</v>
       </c>
       <c r="H44" s="4">
-        <v>0.52589037635766611</v>
+        <v>8.4745762711864389E-2</v>
       </c>
       <c r="I44" s="4">
-        <v>5.6920682525617439E-2</v>
+        <v>9.9728697749196224E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -1896,28 +1896,28 @@
         <v>52</v>
       </c>
       <c r="B45" s="3">
-        <v>2769.4499999999994</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0.41976479514415743</v>
+        <v>2223.6799999999994</v>
+      </c>
+      <c r="C45" s="6">
+        <v>-0.25083467813935034</v>
       </c>
       <c r="D45" s="5">
-        <v>364</v>
-      </c>
-      <c r="E45" s="4">
-        <v>0.48571428571428577</v>
+        <v>301</v>
+      </c>
+      <c r="E45" s="6">
+        <v>-0.16388888888888886</v>
       </c>
       <c r="F45" s="3">
-        <v>7.6083791208791194</v>
+        <v>7.3876411960132868</v>
       </c>
       <c r="G45" s="6">
-        <v>-4.4389080191432395E-2</v>
-      </c>
-      <c r="H45" s="4">
-        <v>0.3935234072509679</v>
+        <v>-0.10398831936932262</v>
+      </c>
+      <c r="H45" s="6">
+        <v>-7.1439592655454409E-2</v>
       </c>
       <c r="I45" s="6">
-        <v>-1.0868155349084918E-2</v>
+        <v>-0.14559425465101294</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -1925,28 +1925,28 @@
         <v>53</v>
       </c>
       <c r="B46" s="3">
-        <v>1950.64</v>
+        <v>2968.2100000000009</v>
       </c>
       <c r="C46" s="6">
-        <v>-0.15417936788063491</v>
+        <v>-0.32577457750317984</v>
       </c>
       <c r="D46" s="5">
-        <v>245</v>
+        <v>360</v>
       </c>
       <c r="E46" s="6">
-        <v>-0.14634146341463417</v>
+        <v>-0.32835820895522383</v>
       </c>
       <c r="F46" s="3">
-        <v>7.961795918367347</v>
-      </c>
-      <c r="G46" s="6">
-        <v>-9.1815452316009738E-3</v>
+        <v>8.2450277777777803</v>
+      </c>
+      <c r="G46" s="4">
+        <v>3.8467401619324271E-3</v>
       </c>
       <c r="H46" s="6">
-        <v>-9.6517729368739036E-2</v>
-      </c>
-      <c r="I46" s="6">
-        <v>-4.7612615931173947E-2</v>
+        <v>-0.22780888835934709</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0.11816376844004207</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -1954,28 +1954,28 @@
         <v>54</v>
       </c>
       <c r="B47" s="3">
-        <v>2306.2099999999991</v>
+        <v>4402.3999999999996</v>
       </c>
       <c r="C47" s="6">
-        <v>-0.40603236906086471</v>
+        <v>-5.8487455682768585E-3</v>
       </c>
       <c r="D47" s="5">
-        <v>287</v>
+        <v>536</v>
       </c>
       <c r="E47" s="6">
-        <v>-0.44379844961240311</v>
+        <v>-2.722323049001818E-2</v>
       </c>
       <c r="F47" s="3">
-        <v>8.0355749128919829</v>
+        <v>8.2134328358208943</v>
       </c>
       <c r="G47" s="4">
-        <v>6.789999151426418E-2</v>
+        <v>2.1972651477387029E-2</v>
       </c>
       <c r="H47" s="6">
-        <v>-0.29810267857142858</v>
+        <v>-0.15042008300435272</v>
       </c>
       <c r="I47" s="4">
-        <v>0.16137482205822409</v>
+        <v>4.9865907060261838E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -1983,28 +1983,28 @@
         <v>55</v>
       </c>
       <c r="B48" s="3">
-        <v>3882.7199999999993</v>
-      </c>
-      <c r="C48" s="4">
-        <v>9.8420853112746828E-2</v>
+        <v>4428.2999999999993</v>
+      </c>
+      <c r="C48" s="6">
+        <v>-3.8089342152422656E-2</v>
       </c>
       <c r="D48" s="5">
-        <v>516</v>
-      </c>
-      <c r="E48" s="4">
-        <v>0.17006802721088435</v>
+        <v>551</v>
+      </c>
+      <c r="E48" s="6">
+        <v>-7.8595317725752456E-2</v>
       </c>
       <c r="F48" s="3">
-        <v>7.524651162790696</v>
-      </c>
-      <c r="G48" s="6">
-        <v>-6.123334065364084E-2</v>
+        <v>8.0368421052631565</v>
+      </c>
+      <c r="G48" s="4">
+        <v>4.3961113235664762E-2</v>
       </c>
       <c r="H48" s="6">
-        <v>-6.2859533521598121E-2</v>
-      </c>
-      <c r="I48" s="4">
-        <v>7.3960330776605687E-3</v>
+        <v>-5.4550674705713502E-2</v>
+      </c>
+      <c r="I48" s="6">
+        <v>-9.9718466352564969E-2</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -2012,28 +2012,28 @@
         <v>56</v>
       </c>
       <c r="B49" s="3">
-        <v>3534.8199999999997</v>
+        <v>4603.6500000000005</v>
       </c>
       <c r="C49" s="4">
-        <v>1.1891402922181715E-2</v>
+        <v>1.6437781506667637E-2</v>
       </c>
       <c r="D49" s="5">
-        <v>441</v>
+        <v>598</v>
       </c>
       <c r="E49" s="6">
-        <v>-1.3422818791946289E-2</v>
+        <v>-1.6694490818029983E-3</v>
       </c>
       <c r="F49" s="3">
-        <v>8.0154648526077086</v>
+        <v>7.6984113712374587</v>
       </c>
       <c r="G49" s="4">
-        <v>2.5658632893911903E-2</v>
-      </c>
-      <c r="H49" s="4">
-        <v>4.7551221650049325E-2</v>
-      </c>
-      <c r="I49" s="6">
-        <v>-3.6773262711594312E-2</v>
+        <v>1.8137510238283916E-2</v>
+      </c>
+      <c r="H49" s="6">
+        <v>-0.13515974176460854</v>
+      </c>
+      <c r="I49" s="4">
+        <v>5.0846767378737168E-2</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -2041,28 +2041,28 @@
         <v>57</v>
       </c>
       <c r="B50" s="3">
-        <v>3493.2800000000011</v>
+        <v>4529.2000000000007</v>
       </c>
       <c r="C50" s="4">
-        <v>0.12018675765116417</v>
+        <v>0.63541497409232872</v>
       </c>
       <c r="D50" s="5">
-        <v>447</v>
+        <v>599</v>
       </c>
       <c r="E50" s="4">
-        <v>7.4519230769230838E-2</v>
+        <v>0.64560439560439553</v>
       </c>
       <c r="F50" s="3">
-        <v>7.8149440715883696</v>
-      </c>
-      <c r="G50" s="4">
-        <v>4.2500427702202082E-2</v>
+        <v>7.5612687813021715</v>
+      </c>
+      <c r="G50" s="6">
+        <v>-6.191902221022394E-3</v>
       </c>
       <c r="H50" s="4">
-        <v>0.10683967984477327</v>
+        <v>0.52589037635766611</v>
       </c>
       <c r="I50" s="4">
-        <v>3.4208353045129147E-2</v>
+        <v>5.6920682525617439E-2</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -2070,28 +2070,28 @@
         <v>58</v>
       </c>
       <c r="B51" s="3">
-        <v>3118.4799999999987</v>
+        <v>2769.4500000000003</v>
       </c>
       <c r="C51" s="4">
-        <v>0.60701660362579446</v>
+        <v>0.41976479514415765</v>
       </c>
       <c r="D51" s="5">
-        <v>416</v>
+        <v>364</v>
       </c>
       <c r="E51" s="4">
-        <v>0.60617760617760608</v>
+        <v>0.48571428571428577</v>
       </c>
       <c r="F51" s="3">
-        <v>7.4963461538461509</v>
-      </c>
-      <c r="G51" s="4">
-        <v>5.2235658432886467E-4</v>
+        <v>7.608379120879122</v>
+      </c>
+      <c r="G51" s="6">
+        <v>-4.4389080191432173E-2</v>
       </c>
       <c r="H51" s="4">
-        <v>0.53242891655826052</v>
+        <v>0.3935234072509679</v>
       </c>
       <c r="I51" s="6">
-        <v>-5.7470002158049871E-3</v>
+        <v>-1.0868155349084918E-2</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -2099,28 +2099,28 @@
         <v>59</v>
       </c>
       <c r="B52" s="3">
-        <v>1940.5399999999997</v>
-      </c>
-      <c r="C52" s="4">
-        <v>0.1172047715549005</v>
+        <v>1950.64</v>
+      </c>
+      <c r="C52" s="6">
+        <v>-0.1541793678806348</v>
       </c>
       <c r="D52" s="5">
-        <v>259</v>
-      </c>
-      <c r="E52" s="4">
-        <v>0.19907407407407418</v>
+        <v>245</v>
+      </c>
+      <c r="E52" s="6">
+        <v>-0.14634146341463417</v>
       </c>
       <c r="F52" s="3">
-        <v>7.4924324324324312</v>
+        <v>7.961795918367347</v>
       </c>
       <c r="G52" s="6">
-        <v>-6.8277101714832145E-2</v>
-      </c>
-      <c r="H52" s="4">
-        <v>0.24617878647522004</v>
-      </c>
-      <c r="I52" s="4">
-        <v>5.0634439235415885E-2</v>
+        <v>-9.1815452316007518E-3</v>
+      </c>
+      <c r="H52" s="6">
+        <v>-9.6517729368739036E-2</v>
+      </c>
+      <c r="I52" s="6">
+        <v>-4.7612615931173947E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -2128,28 +2128,28 @@
         <v>60</v>
       </c>
       <c r="B53" s="3">
-        <v>1736.9599999999998</v>
-      </c>
-      <c r="C53" s="4">
-        <v>0.48885688815744333</v>
+        <v>2306.2099999999991</v>
+      </c>
+      <c r="C53" s="6">
+        <v>-0.40603236906086471</v>
       </c>
       <c r="D53" s="5">
-        <v>216</v>
-      </c>
-      <c r="E53" s="4">
-        <v>0.45945945945945943</v>
+        <v>287</v>
+      </c>
+      <c r="E53" s="6">
+        <v>-0.44379844961240311</v>
       </c>
       <c r="F53" s="3">
-        <v>8.0414814814814815</v>
+        <v>8.0355749128919829</v>
       </c>
       <c r="G53" s="4">
-        <v>2.0142682626396402E-2</v>
-      </c>
-      <c r="H53" s="4">
-        <v>7.252856433184296E-2</v>
+        <v>6.789999151426418E-2</v>
+      </c>
+      <c r="H53" s="6">
+        <v>-0.29810267857142858</v>
       </c>
       <c r="I53" s="4">
-        <v>8.3119541371171626E-2</v>
+        <v>0.16137482205822409</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -2157,28 +2157,28 @@
         <v>61</v>
       </c>
       <c r="B54" s="3">
-        <v>1166.6400000000001</v>
-      </c>
-      <c r="C54" s="6">
-        <v>-0.54838459930475425</v>
+        <v>3882.7200000000007</v>
+      </c>
+      <c r="C54" s="4">
+        <v>9.842085311274662E-2</v>
       </c>
       <c r="D54" s="5">
-        <v>148</v>
-      </c>
-      <c r="E54" s="6">
-        <v>-0.54878048780487809</v>
+        <v>516</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0.17006802721088435</v>
       </c>
       <c r="F54" s="3">
-        <v>7.8827027027027032</v>
-      </c>
-      <c r="G54" s="4">
-        <v>8.7737451378799847E-4</v>
+        <v>7.5246511627906987</v>
+      </c>
+      <c r="G54" s="6">
+        <v>-6.1233340653641048E-2</v>
       </c>
       <c r="H54" s="6">
-        <v>-0.2976273551988835</v>
-      </c>
-      <c r="I54" s="6">
-        <v>-0.20212911378056053</v>
+        <v>-6.2859533521598121E-2</v>
+      </c>
+      <c r="I54" s="4">
+        <v>7.3960330776605687E-3</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -2186,28 +2186,28 @@
         <v>62</v>
       </c>
       <c r="B55" s="3">
-        <v>2583.2599999999993</v>
-      </c>
-      <c r="C55" s="6">
-        <v>-0.2831844164493037</v>
+        <v>3534.8200000000015</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1.1891402922181271E-2</v>
       </c>
       <c r="D55" s="5">
-        <v>328</v>
+        <v>441</v>
       </c>
       <c r="E55" s="6">
-        <v>-0.24770642201834858</v>
+        <v>-1.3422818791946289E-2</v>
       </c>
       <c r="F55" s="3">
-        <v>7.8757926829268268</v>
-      </c>
-      <c r="G55" s="6">
-        <v>-4.7159773085049927E-2</v>
-      </c>
-      <c r="H55" s="6">
-        <v>-0.20189362294625457</v>
-      </c>
-      <c r="I55" s="4">
-        <v>1.462991899026056E-2</v>
+        <v>8.0154648526077139</v>
+      </c>
+      <c r="G55" s="4">
+        <v>2.5658632893911681E-2</v>
+      </c>
+      <c r="H55" s="4">
+        <v>4.7551221650049325E-2</v>
+      </c>
+      <c r="I55" s="6">
+        <v>-3.6773262711594312E-2</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -2215,28 +2215,28 @@
         <v>63</v>
       </c>
       <c r="B56" s="3">
-        <v>3603.7999999999997</v>
+        <v>3493.2800000000034</v>
       </c>
       <c r="C56" s="4">
-        <v>0.17382269212478896</v>
+        <v>0.12018675765116438</v>
       </c>
       <c r="D56" s="5">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="E56" s="4">
-        <v>3.3175355450236976E-2</v>
+        <v>7.4519230769230838E-2</v>
       </c>
       <c r="F56" s="3">
-        <v>8.265596330275228</v>
+        <v>7.8149440715883749</v>
       </c>
       <c r="G56" s="4">
-        <v>0.13613113779050656</v>
+        <v>4.2500427702202304E-2</v>
       </c>
       <c r="H56" s="4">
-        <v>1.8723404255319043E-2</v>
+        <v>0.10683967984477327</v>
       </c>
       <c r="I56" s="4">
-        <v>6.5491521972060873E-4</v>
+        <v>3.4208353045129147E-2</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -2244,28 +2244,28 @@
         <v>64</v>
       </c>
       <c r="B57" s="3">
-        <v>3070.1400000000008</v>
+        <v>3118.4799999999996</v>
       </c>
       <c r="C57" s="4">
-        <v>0.13118994281671914</v>
+        <v>0.6070166036257949</v>
       </c>
       <c r="D57" s="5">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="E57" s="4">
-        <v>0.12834224598930488</v>
+        <v>0.60617760617760608</v>
       </c>
       <c r="F57" s="3">
-        <v>7.2752132701421823</v>
+        <v>7.4963461538461527</v>
       </c>
       <c r="G57" s="4">
-        <v>2.5237881835380449E-3</v>
+        <v>5.2235658432908672E-4</v>
       </c>
       <c r="H57" s="4">
-        <v>2.5597269624573205E-3</v>
+        <v>0.53242891655826052</v>
       </c>
       <c r="I57" s="6">
-        <v>-0.10428284111358099</v>
+        <v>-5.7470002158049871E-3</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -2273,28 +2273,28 @@
         <v>65</v>
       </c>
       <c r="B58" s="3">
-        <v>2714.0799999999995</v>
+        <v>1940.54</v>
       </c>
       <c r="C58" s="4">
-        <v>0.43010401407931176</v>
+        <v>0.1172047715549005</v>
       </c>
       <c r="D58" s="5">
-        <v>374</v>
+        <v>259</v>
       </c>
       <c r="E58" s="4">
-        <v>0.38518518518518507</v>
+        <v>0.19907407407407418</v>
       </c>
       <c r="F58" s="3">
-        <v>7.2568983957219233</v>
-      </c>
-      <c r="G58" s="4">
-        <v>3.2428031554583292E-2</v>
+        <v>7.4924324324324321</v>
+      </c>
+      <c r="G58" s="6">
+        <v>-6.8277101714832034E-2</v>
       </c>
       <c r="H58" s="4">
-        <v>6.820598511317022E-2</v>
+        <v>0.24617878647522004</v>
       </c>
       <c r="I58" s="4">
-        <v>0.30218654416193291</v>
+        <v>5.0634439235415885E-2</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -2302,28 +2302,28 @@
         <v>66</v>
       </c>
       <c r="B59" s="3">
-        <v>1897.8200000000002</v>
+        <v>1736.9599999999998</v>
       </c>
       <c r="C59" s="4">
-        <v>0.23045702393070377</v>
+        <v>0.4888568881574431</v>
       </c>
       <c r="D59" s="5">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="E59" s="4">
-        <v>0.13445378151260501</v>
+        <v>0.45945945945945943</v>
       </c>
       <c r="F59" s="3">
-        <v>7.0289629629629635</v>
+        <v>8.0414814814814815</v>
       </c>
       <c r="G59" s="4">
-        <v>8.4625080353731619E-2</v>
+        <v>2.014268262639618E-2</v>
       </c>
       <c r="H59" s="4">
-        <v>0.75968992248062017</v>
-      </c>
-      <c r="I59" s="6">
-        <v>-0.25686208065062688</v>
+        <v>7.252856433184296E-2</v>
+      </c>
+      <c r="I59" s="4">
+        <v>8.3119541371171626E-2</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -2331,28 +2331,28 @@
         <v>67</v>
       </c>
       <c r="B60" s="3">
-        <v>1542.3700000000003</v>
+        <v>1166.6400000000003</v>
       </c>
       <c r="C60" s="6">
-        <v>-0.13430733136513129</v>
+        <v>-0.54838459930475436</v>
       </c>
       <c r="D60" s="5">
-        <v>238</v>
+        <v>148</v>
       </c>
       <c r="E60" s="6">
-        <v>-5.9288537549407112E-2</v>
+        <v>-0.54878048780487809</v>
       </c>
       <c r="F60" s="3">
-        <v>6.4805462184873965</v>
-      </c>
-      <c r="G60" s="6">
-        <v>-7.9746869056210978E-2</v>
+        <v>7.882702702702705</v>
+      </c>
+      <c r="G60" s="4">
+        <v>8.7737451378755438E-4</v>
       </c>
       <c r="H60" s="6">
-        <v>-0.40353954081632648</v>
+        <v>-0.2976273551988835</v>
       </c>
       <c r="I60" s="6">
-        <v>-0.22968999472608131</v>
+        <v>-0.20212911378056053</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -2360,28 +2360,28 @@
         <v>68</v>
       </c>
       <c r="B61" s="3">
-        <v>1781.66</v>
+        <v>2583.2600000000002</v>
       </c>
       <c r="C61" s="6">
-        <v>-0.13459978530870353</v>
+        <v>-0.28318441644930348</v>
       </c>
       <c r="D61" s="5">
-        <v>253</v>
+        <v>328</v>
       </c>
       <c r="E61" s="6">
-        <v>-0.11846689895470386</v>
+        <v>-0.24770642201834858</v>
       </c>
       <c r="F61" s="3">
-        <v>7.042134387351779</v>
+        <v>7.8757926829268303</v>
       </c>
       <c r="G61" s="6">
-        <v>-1.8300942227659767E-2</v>
-      </c>
-      <c r="H61" s="4">
-        <v>2.6345933562428314E-2</v>
+        <v>-4.7159773085049705E-2</v>
+      </c>
+      <c r="H61" s="6">
+        <v>-0.20189362294625457</v>
       </c>
       <c r="I61" s="4">
-        <v>0.34670374076354671</v>
+        <v>1.462991899026056E-2</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -2389,28 +2389,28 @@
         <v>69</v>
       </c>
       <c r="B62" s="3">
-        <v>2058.7699999999995</v>
-      </c>
-      <c r="C62" s="6">
-        <v>-1.723257290428537E-2</v>
+        <v>3603.8</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.17382269212478854</v>
       </c>
       <c r="D62" s="5">
-        <v>287</v>
+        <v>436</v>
       </c>
       <c r="E62" s="4">
-        <v>7.0895522388059629E-2</v>
+        <v>3.3175355450236976E-2</v>
       </c>
       <c r="F62" s="3">
-        <v>7.1734146341463401</v>
-      </c>
-      <c r="G62" s="6">
-        <v>-8.2293831144071294E-2</v>
+        <v>8.2655963302752298</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0.13613113779050634</v>
       </c>
       <c r="H62" s="4">
-        <v>0.20485015772870654</v>
+        <v>1.8723404255319043E-2</v>
       </c>
       <c r="I62" s="4">
-        <v>7.3727126231629247E-2</v>
+        <v>6.5491521972060873E-4</v>
       </c>
     </row>
   </sheetData>
